--- a/bluda.xlsx
+++ b/bluda.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>яйца</t>
   </si>
@@ -219,6 +219,9 @@
   <si>
     <t>творожная запеканка</t>
   </si>
+  <si>
+    <t>RESULT</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +335,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL88"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,120 +636,123 @@
     <col min="18" max="18" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -747,11 +762,11 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -778,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="3">
         <v>0</v>
@@ -852,8 +867,11 @@
       <c r="AL2" s="3">
         <v>0</v>
       </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -863,14 +881,14 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
+      <c r="D3" s="7">
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -906,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="3">
         <v>0</v>
@@ -968,8 +986,11 @@
       <c r="AL3" s="3">
         <v>0</v>
       </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -979,14 +1000,14 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
+      <c r="D4" s="7">
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1025,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
         <v>0</v>
@@ -1084,8 +1105,11 @@
       <c r="AL4" s="3">
         <v>0</v>
       </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1095,11 +1119,11 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1132,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
@@ -1147,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="3">
         <v>0</v>
@@ -1200,8 +1224,11 @@
       <c r="AL5" s="3">
         <v>0</v>
       </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1211,7 +1238,7 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -1230,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
         <v>0</v>
@@ -1260,46 +1287,46 @@
         <v>0</v>
       </c>
       <c r="T6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
         <v>1</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="3">
         <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="3">
         <v>1</v>
       </c>
       <c r="AG6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="3">
         <v>0</v>
@@ -1316,8 +1343,11 @@
       <c r="AL6" s="3">
         <v>0</v>
       </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1327,7 +1357,7 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -1340,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -1432,8 +1462,11 @@
       <c r="AL7" s="3">
         <v>0</v>
       </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1476,7 @@
       <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -1468,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -1507,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="3">
         <v>1</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
@@ -1548,8 +1581,11 @@
       <c r="AL8" s="3">
         <v>0</v>
       </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1595,7 @@
       <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>0</v>
       </c>
       <c r="E9" s="3">
@@ -1584,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -1617,22 +1653,22 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>1</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
@@ -1664,8 +1700,11 @@
       <c r="AL9" s="3">
         <v>0</v>
       </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1675,14 +1714,14 @@
       <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1691,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -1727,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>1</v>
@@ -1736,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="X10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
@@ -1780,8 +1819,11 @@
       <c r="AL10" s="3">
         <v>0</v>
       </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1833,7 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="3">
@@ -1804,31 +1846,31 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
@@ -1896,8 +1938,11 @@
       <c r="AL11" s="3">
         <v>0</v>
       </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1907,26 +1952,26 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1941,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -2012,8 +2057,11 @@
       <c r="AL12" s="3">
         <v>0</v>
       </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -2023,7 +2071,7 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="3">
@@ -2033,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2057,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
@@ -2084,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
@@ -2128,8 +2176,11 @@
       <c r="AL13" s="3">
         <v>0</v>
       </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
@@ -2139,7 +2190,7 @@
       <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="3">
@@ -2158,25 +2209,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -2191,25 +2242,25 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
@@ -2218,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="3">
         <v>0</v>
@@ -2244,8 +2295,11 @@
       <c r="AL14" s="3">
         <v>0</v>
       </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2255,7 +2309,7 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="3">
@@ -2265,34 +2319,34 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>1</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -2337,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="AE15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="3">
         <v>1</v>
       </c>
       <c r="AG15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="3">
         <v>0</v>
@@ -2360,8 +2414,11 @@
       <c r="AL15" s="3">
         <v>0</v>
       </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2371,11 +2428,11 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
+      <c r="D16" s="7">
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -2387,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -2441,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="3">
         <v>0</v>
@@ -2459,10 +2516,10 @@
         <v>0</v>
       </c>
       <c r="AG16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="3">
         <v>0</v>
@@ -2476,8 +2533,11 @@
       <c r="AL16" s="3">
         <v>0</v>
       </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2487,41 +2547,41 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -2557,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="3">
         <v>0</v>
@@ -2592,8 +2652,11 @@
       <c r="AL17" s="3">
         <v>0</v>
       </c>
+      <c r="AM17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -2603,14 +2666,14 @@
       <c r="C18" s="2">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2708,8 +2771,11 @@
       <c r="AL18" s="3">
         <v>0</v>
       </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2719,11 +2785,11 @@
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -2759,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="3">
         <v>0</v>
@@ -2771,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="3">
         <v>0</v>
@@ -2824,8 +2890,11 @@
       <c r="AL19" s="3">
         <v>0</v>
       </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
@@ -2835,11 +2904,11 @@
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
+      <c r="D20" s="7">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -2863,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -2908,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
@@ -2940,8 +3009,11 @@
       <c r="AL20" s="3">
         <v>0</v>
       </c>
+      <c r="AM20" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
@@ -2951,7 +3023,7 @@
       <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="3">
@@ -2979,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -3033,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="AE21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="3">
         <v>0</v>
@@ -3056,8 +3128,11 @@
       <c r="AL21" s="3">
         <v>0</v>
       </c>
+      <c r="AM21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -3067,11 +3142,11 @@
       <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
+      <c r="D22" s="7">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3095,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -3125,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
         <v>1</v>
@@ -3143,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="AC22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -3155,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="AG22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="3">
         <v>0</v>
@@ -3172,8 +3247,11 @@
       <c r="AL22" s="3">
         <v>0</v>
       </c>
+      <c r="AM22" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
@@ -3183,11 +3261,11 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
+      <c r="D23" s="7">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3199,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -3247,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="3">
         <v>0</v>
@@ -3265,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="AE23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="3">
         <v>0</v>
       </c>
       <c r="AH23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
@@ -3288,8 +3366,11 @@
       <c r="AL23" s="3">
         <v>0</v>
       </c>
+      <c r="AM23" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -3299,11 +3380,11 @@
       <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
+      <c r="D24" s="7">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -3315,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -3327,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -3381,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="3">
         <v>0</v>
@@ -3396,16 +3477,19 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="3">
         <v>0</v>
       </c>
+      <c r="AM24" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
@@ -3415,7 +3499,7 @@
       <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="3">
@@ -3449,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -3464,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="3">
         <v>0</v>
@@ -3515,13 +3599,16 @@
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -3531,7 +3618,7 @@
       <c r="C26" s="2">
         <v>0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>0</v>
       </c>
       <c r="E26" s="3">
@@ -3553,10 +3640,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -3601,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="3">
         <v>0</v>
@@ -3636,8 +3723,11 @@
       <c r="AL26" s="3">
         <v>0</v>
       </c>
+      <c r="AM26" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -3647,11 +3737,11 @@
       <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
+      <c r="D27" s="7">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -3699,16 +3789,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
@@ -3752,8 +3842,11 @@
       <c r="AL27" s="3">
         <v>0</v>
       </c>
+      <c r="AM27" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
@@ -3763,7 +3856,7 @@
       <c r="C28" s="2">
         <v>0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="3">
@@ -3779,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
@@ -3794,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="3">
         <v>0</v>
@@ -3827,28 +3920,28 @@
         <v>0</v>
       </c>
       <c r="Y28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
       </c>
       <c r="AC28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="3">
         <v>0</v>
       </c>
       <c r="AE28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="3">
         <v>0</v>
@@ -3866,10 +3959,13 @@
         <v>0</v>
       </c>
       <c r="AL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
@@ -3879,11 +3975,11 @@
       <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
+      <c r="D29" s="7">
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -3913,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -3937,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -3984,8 +4080,11 @@
       <c r="AL29" s="3">
         <v>0</v>
       </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
@@ -3995,11 +4094,11 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -4032,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <v>1</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -4100,8 +4199,11 @@
       <c r="AL30" s="3">
         <v>0</v>
       </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -4111,11 +4213,11 @@
       <c r="C31" s="2">
         <v>0</v>
       </c>
-      <c r="D31" s="3">
-        <v>1</v>
+      <c r="D31" s="7">
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -4142,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="3">
         <v>0</v>
@@ -4216,8 +4318,11 @@
       <c r="AL31" s="3">
         <v>0</v>
       </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -4227,14 +4332,14 @@
       <c r="C32" s="2">
         <v>0</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -4270,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -4332,8 +4437,11 @@
       <c r="AL32" s="3">
         <v>0</v>
       </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
@@ -4343,14 +4451,14 @@
       <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -4389,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -4448,8 +4556,11 @@
       <c r="AL33" s="3">
         <v>0</v>
       </c>
+      <c r="AM33" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -4459,11 +4570,11 @@
       <c r="C34" s="2">
         <v>0</v>
       </c>
-      <c r="D34" s="3">
-        <v>1</v>
+      <c r="D34" s="7">
+        <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -4496,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
         <v>1</v>
       </c>
       <c r="R34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="3">
         <v>0</v>
@@ -4511,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="3">
         <v>0</v>
@@ -4564,8 +4675,11 @@
       <c r="AL34" s="3">
         <v>0</v>
       </c>
+      <c r="AM34" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -4575,8 +4689,8 @@
       <c r="C35" s="2">
         <v>0</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="7">
+        <v>1</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4594,25 +4708,25 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -4624,46 +4738,46 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>1</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="3">
         <v>1</v>
       </c>
       <c r="AG35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -4680,8 +4794,11 @@
       <c r="AL35" s="3">
         <v>0</v>
       </c>
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
@@ -4691,8 +4808,8 @@
       <c r="C36" s="2">
         <v>0</v>
       </c>
-      <c r="D36" s="3">
-        <v>0</v>
+      <c r="D36" s="7">
+        <v>1</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -4704,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -4796,8 +4913,11 @@
       <c r="AL36" s="3">
         <v>0</v>
       </c>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4807,8 +4927,8 @@
       <c r="C37" s="5">
         <v>0</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
+      <c r="D37" s="7">
+        <v>1</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -4832,19 +4952,19 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -4871,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="Y37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="3">
         <v>1</v>
       </c>
       <c r="AA37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
@@ -4912,8 +5032,11 @@
       <c r="AL37" s="3">
         <v>0</v>
       </c>
+      <c r="AM37" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
@@ -4923,8 +5046,8 @@
       <c r="C38" s="5">
         <v>0</v>
       </c>
-      <c r="D38" s="3">
-        <v>0</v>
+      <c r="D38" s="7">
+        <v>1</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -4948,19 +5071,19 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="3">
         <v>0</v>
@@ -4981,22 +5104,22 @@
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="3">
         <v>0</v>
       </c>
       <c r="Z38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="3">
         <v>1</v>
       </c>
       <c r="AB38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="3">
         <v>0</v>
@@ -5028,8 +5151,11 @@
       <c r="AL38" s="3">
         <v>0</v>
       </c>
+      <c r="AM38" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -5039,14 +5165,14 @@
       <c r="C39" s="5">
         <v>0</v>
       </c>
-      <c r="D39" s="3">
-        <v>0</v>
+      <c r="D39" s="7">
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -5055,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -5091,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="3">
         <v>1</v>
@@ -5100,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="X39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39" s="3">
         <v>0</v>
@@ -5144,8 +5270,11 @@
       <c r="AL39" s="3">
         <v>0</v>
       </c>
+      <c r="AM39" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>20</v>
       </c>
@@ -5155,8 +5284,8 @@
       <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
+      <c r="D40" s="7">
+        <v>1</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -5168,31 +5297,31 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
         <v>1</v>
       </c>
       <c r="P40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="3">
         <v>0</v>
@@ -5260,8 +5389,11 @@
       <c r="AL40" s="3">
         <v>0</v>
       </c>
+      <c r="AM40" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
@@ -5271,26 +5403,26 @@
       <c r="C41" s="2">
         <v>0</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="7">
+        <v>1</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -5305,10 +5437,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -5376,8 +5508,11 @@
       <c r="AL41" s="3">
         <v>0</v>
       </c>
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>29</v>
       </c>
@@ -5387,8 +5522,8 @@
       <c r="C42" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="7">
+        <v>1</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -5397,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -5421,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -5448,10 +5583,10 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -5492,8 +5627,11 @@
       <c r="AL42" s="3">
         <v>0</v>
       </c>
+      <c r="AM42" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -5503,8 +5641,8 @@
       <c r="C43" s="2">
         <v>0</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="7">
+        <v>1</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -5522,25 +5660,25 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -5555,25 +5693,25 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -5582,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="AD43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF43" s="3">
         <v>0</v>
@@ -5608,8 +5746,11 @@
       <c r="AL43" s="3">
         <v>0</v>
       </c>
+      <c r="AM43" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
@@ -5619,8 +5760,8 @@
       <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="7">
+        <v>1</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -5629,34 +5770,34 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>1</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -5701,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="AE44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="3">
         <v>1</v>
       </c>
       <c r="AG44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -5724,8 +5865,11 @@
       <c r="AL44" s="3">
         <v>0</v>
       </c>
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
@@ -5735,11 +5879,11 @@
       <c r="C45" s="2">
         <v>0</v>
       </c>
-      <c r="D45" s="3">
-        <v>1</v>
+      <c r="D45" s="7">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -5751,19 +5895,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -5805,10 +5949,10 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
@@ -5823,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="AG45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="3">
         <v>0</v>
@@ -5840,8 +5984,11 @@
       <c r="AL45" s="3">
         <v>0</v>
       </c>
+      <c r="AM45" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
@@ -5851,41 +5998,41 @@
       <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="7">
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -5921,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
@@ -5956,8 +6103,11 @@
       <c r="AL46" s="3">
         <v>0</v>
       </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -5967,14 +6117,14 @@
       <c r="C47" s="2">
         <v>0</v>
       </c>
-      <c r="D47" s="3">
-        <v>1</v>
+      <c r="D47" s="7">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -6072,8 +6222,11 @@
       <c r="AL47" s="3">
         <v>0</v>
       </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -6083,11 +6236,11 @@
       <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="D48" s="3">
-        <v>1</v>
+      <c r="D48" s="7">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -6123,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -6135,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -6188,8 +6341,11 @@
       <c r="AL48" s="3">
         <v>0</v>
       </c>
+      <c r="AM48" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -6199,11 +6355,11 @@
       <c r="C49" s="2">
         <v>0</v>
       </c>
-      <c r="D49" s="3">
-        <v>1</v>
+      <c r="D49" s="7">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -6227,16 +6383,16 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -6272,10 +6428,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="3">
         <v>0</v>
@@ -6304,8 +6460,11 @@
       <c r="AL49" s="3">
         <v>0</v>
       </c>
+      <c r="AM49" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -6315,7 +6474,7 @@
       <c r="C50" s="2">
         <v>0</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="3">
@@ -6343,13 +6502,13 @@
         <v>0</v>
       </c>
       <c r="M50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
       </c>
       <c r="O50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="3">
         <v>0</v>
@@ -6397,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="AE50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="3">
         <v>0</v>
@@ -6420,8 +6579,11 @@
       <c r="AL50" s="3">
         <v>0</v>
       </c>
+      <c r="AM50" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -6431,11 +6593,11 @@
       <c r="C51" s="2">
         <v>0</v>
       </c>
-      <c r="D51" s="3">
-        <v>1</v>
+      <c r="D51" s="7">
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -6459,10 +6621,10 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -6489,16 +6651,16 @@
         <v>0</v>
       </c>
       <c r="W51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="3">
         <v>0</v>
       </c>
       <c r="Z51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51" s="3">
         <v>1</v>
@@ -6507,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="AC51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="3">
         <v>0</v>
@@ -6519,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="AG51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="3">
         <v>0</v>
@@ -6536,8 +6698,11 @@
       <c r="AL51" s="3">
         <v>0</v>
       </c>
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -6547,11 +6712,11 @@
       <c r="C52" s="2">
         <v>0</v>
       </c>
-      <c r="D52" s="3">
-        <v>1</v>
+      <c r="D52" s="7">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -6563,19 +6728,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -6611,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
@@ -6629,19 +6794,19 @@
         <v>0</v>
       </c>
       <c r="AE52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="3">
         <v>0</v>
       </c>
       <c r="AH52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="3">
         <v>0</v>
@@ -6652,8 +6817,11 @@
       <c r="AL52" s="3">
         <v>0</v>
       </c>
+      <c r="AM52" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -6663,11 +6831,11 @@
       <c r="C53" s="2">
         <v>0</v>
       </c>
-      <c r="D53" s="3">
-        <v>1</v>
+      <c r="D53" s="7">
+        <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -6679,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -6691,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="3">
         <v>0</v>
@@ -6745,10 +6913,10 @@
         <v>0</v>
       </c>
       <c r="AE53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="3">
         <v>0</v>
@@ -6760,16 +6928,19 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="3">
         <v>0</v>
       </c>
+      <c r="AM53" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -6779,7 +6950,7 @@
       <c r="C54" s="2">
         <v>0</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="7">
         <v>0</v>
       </c>
       <c r="E54" s="3">
@@ -6813,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -6828,16 +6999,16 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -6879,13 +7050,16 @@
         <v>0</v>
       </c>
       <c r="AK54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>64</v>
       </c>
@@ -6895,8 +7069,8 @@
       <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
+      <c r="D55" s="7">
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -6917,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
@@ -6965,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="AA55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="3">
         <v>0</v>
@@ -7000,8 +7174,11 @@
       <c r="AL55" s="3">
         <v>0</v>
       </c>
+      <c r="AM55" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -7011,11 +7188,11 @@
       <c r="C56" s="2">
         <v>0</v>
       </c>
-      <c r="D56" s="3">
-        <v>1</v>
+      <c r="D56" s="7">
+        <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -7063,16 +7240,16 @@
         <v>0</v>
       </c>
       <c r="U56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" s="3">
         <v>0</v>
@@ -7116,8 +7293,11 @@
       <c r="AL56" s="3">
         <v>0</v>
       </c>
+      <c r="AM56" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -7127,7 +7307,7 @@
       <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="7">
         <v>0</v>
       </c>
       <c r="E57" s="3">
@@ -7143,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -7158,10 +7338,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -7191,28 +7371,28 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>1</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG57" s="3">
         <v>0</v>
@@ -7230,10 +7410,13 @@
         <v>0</v>
       </c>
       <c r="AL57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>61</v>
       </c>
@@ -7243,11 +7426,11 @@
       <c r="C58" s="2">
         <v>0</v>
       </c>
-      <c r="D58" s="3">
-        <v>1</v>
+      <c r="D58" s="7">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -7277,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -7301,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -7348,8 +7531,11 @@
       <c r="AL58" s="3">
         <v>0</v>
       </c>
+      <c r="AM58" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -7359,11 +7545,11 @@
       <c r="C59" s="2">
         <v>0</v>
       </c>
-      <c r="D59" s="3">
-        <v>1</v>
+      <c r="D59" s="7">
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -7396,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>1</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -7464,8 +7650,11 @@
       <c r="AL59" s="3">
         <v>0</v>
       </c>
+      <c r="AM59" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -7475,11 +7664,11 @@
       <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
+      <c r="D60" s="7">
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -7506,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -7580,8 +7769,11 @@
       <c r="AL60" s="3">
         <v>0</v>
       </c>
+      <c r="AM60" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>16</v>
       </c>
@@ -7591,14 +7783,14 @@
       <c r="C61" s="2">
         <v>0</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="7">
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -7634,10 +7826,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -7696,8 +7888,11 @@
       <c r="AL61" s="3">
         <v>0</v>
       </c>
+      <c r="AM61" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
@@ -7707,14 +7902,14 @@
       <c r="C62" s="2">
         <v>0</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="7">
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -7753,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -7812,8 +8007,11 @@
       <c r="AL62" s="3">
         <v>0</v>
       </c>
+      <c r="AM62" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>32</v>
       </c>
@@ -7823,11 +8021,11 @@
       <c r="C63" s="2">
         <v>0</v>
       </c>
-      <c r="D63" s="3">
-        <v>1</v>
+      <c r="D63" s="7">
+        <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -7860,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="3">
         <v>1</v>
       </c>
       <c r="R63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="3">
         <v>0</v>
@@ -7875,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="U63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63" s="3">
         <v>0</v>
@@ -7928,8 +8126,11 @@
       <c r="AL63" s="3">
         <v>0</v>
       </c>
+      <c r="AM63" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>18</v>
       </c>
@@ -7939,7 +8140,7 @@
       <c r="C64" s="2">
         <v>0</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="7">
         <v>0</v>
       </c>
       <c r="E64" s="3">
@@ -7958,25 +8159,25 @@
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" s="3">
         <v>1</v>
       </c>
       <c r="P64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="3">
         <v>0</v>
@@ -7988,46 +8189,46 @@
         <v>0</v>
       </c>
       <c r="T64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" s="3">
         <v>1</v>
       </c>
       <c r="X64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="3">
         <v>0</v>
       </c>
       <c r="Z64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64" s="3">
         <v>0</v>
       </c>
       <c r="AC64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="3">
         <v>1</v>
       </c>
       <c r="AG64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64" s="3">
         <v>0</v>
@@ -8044,8 +8245,11 @@
       <c r="AL64" s="3">
         <v>0</v>
       </c>
+      <c r="AM64" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>22</v>
       </c>
@@ -8055,7 +8259,7 @@
       <c r="C65" s="2">
         <v>0</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="7">
         <v>0</v>
       </c>
       <c r="E65" s="3">
@@ -8068,13 +8272,13 @@
         <v>0</v>
       </c>
       <c r="H65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
       </c>
       <c r="J65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -8160,8 +8364,11 @@
       <c r="AL65" s="3">
         <v>0</v>
       </c>
+      <c r="AM65" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -8171,7 +8378,7 @@
       <c r="C66" s="5">
         <v>0</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="3">
@@ -8196,19 +8403,19 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -8235,13 +8442,13 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="3">
         <v>1</v>
       </c>
       <c r="AA66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66" s="3">
         <v>0</v>
@@ -8276,8 +8483,11 @@
       <c r="AL66" s="3">
         <v>0</v>
       </c>
+      <c r="AM66" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>35</v>
       </c>
@@ -8287,7 +8497,7 @@
       <c r="C67" s="5">
         <v>0</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="7">
         <v>0</v>
       </c>
       <c r="E67" s="3">
@@ -8312,19 +8522,19 @@
         <v>0</v>
       </c>
       <c r="L67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="3">
         <v>0</v>
       </c>
       <c r="O67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="3">
         <v>0</v>
@@ -8345,22 +8555,22 @@
         <v>0</v>
       </c>
       <c r="W67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="3">
         <v>0</v>
       </c>
       <c r="Z67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="3">
         <v>1</v>
       </c>
       <c r="AB67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="3">
         <v>0</v>
@@ -8392,8 +8602,11 @@
       <c r="AL67" s="3">
         <v>0</v>
       </c>
+      <c r="AM67" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>30</v>
       </c>
@@ -8403,14 +8616,14 @@
       <c r="C68" s="5">
         <v>0</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="7">
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -8419,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -8455,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" s="3">
         <v>1</v>
@@ -8464,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="X68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="3">
         <v>0</v>
@@ -8508,8 +8721,11 @@
       <c r="AL68" s="3">
         <v>0</v>
       </c>
+      <c r="AM68" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
@@ -8519,7 +8735,7 @@
       <c r="C69" s="2">
         <v>0</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="7">
         <v>0</v>
       </c>
       <c r="E69" s="3">
@@ -8532,31 +8748,31 @@
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
       </c>
       <c r="J69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
       </c>
       <c r="L69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" s="3">
         <v>1</v>
       </c>
       <c r="P69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="3">
         <v>0</v>
@@ -8624,8 +8840,11 @@
       <c r="AL69" s="3">
         <v>0</v>
       </c>
+      <c r="AM69" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
@@ -8635,26 +8854,26 @@
       <c r="C70" s="2">
         <v>0</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="7">
         <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -8669,10 +8888,10 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -8740,8 +8959,11 @@
       <c r="AL70" s="3">
         <v>0</v>
       </c>
+      <c r="AM70" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>29</v>
       </c>
@@ -8751,7 +8973,7 @@
       <c r="C71" s="2">
         <v>0</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="7">
         <v>0</v>
       </c>
       <c r="E71" s="3">
@@ -8761,16 +8983,16 @@
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -8785,10 +9007,10 @@
         <v>0</v>
       </c>
       <c r="O71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="3">
         <v>0</v>
@@ -8812,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="X71" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="3">
         <v>0</v>
@@ -8856,8 +9078,11 @@
       <c r="AL71" s="3">
         <v>0</v>
       </c>
+      <c r="AM71" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
@@ -8867,7 +9092,7 @@
       <c r="C72" s="2">
         <v>0</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="7">
         <v>0</v>
       </c>
       <c r="E72" s="3">
@@ -8886,25 +9111,25 @@
         <v>0</v>
       </c>
       <c r="J72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
       <c r="M72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -8919,25 +9144,25 @@
         <v>0</v>
       </c>
       <c r="U72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y72" s="3">
         <v>0</v>
       </c>
       <c r="Z72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72" s="3">
         <v>0</v>
@@ -8946,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AD72" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF72" s="3">
         <v>0</v>
@@ -8972,8 +9197,11 @@
       <c r="AL72" s="3">
         <v>0</v>
       </c>
+      <c r="AM72" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>41</v>
       </c>
@@ -8983,7 +9211,7 @@
       <c r="C73" s="2">
         <v>0</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="7">
         <v>0</v>
       </c>
       <c r="E73" s="3">
@@ -8993,34 +9221,34 @@
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="3">
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" s="3">
         <v>1</v>
       </c>
       <c r="P73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -9065,13 +9293,13 @@
         <v>0</v>
       </c>
       <c r="AE73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="3">
         <v>1</v>
       </c>
       <c r="AG73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73" s="3">
         <v>0</v>
@@ -9088,8 +9316,11 @@
       <c r="AL73" s="3">
         <v>0</v>
       </c>
+      <c r="AM73" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>48</v>
       </c>
@@ -9099,11 +9330,11 @@
       <c r="C74" s="2">
         <v>0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="7">
         <v>1</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -9115,19 +9346,19 @@
         <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
       </c>
       <c r="L74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="3">
         <v>0</v>
@@ -9169,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="AA74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74" s="3">
         <v>0</v>
@@ -9187,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AG74" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI74" s="3">
         <v>0</v>
@@ -9204,8 +9435,11 @@
       <c r="AL74" s="3">
         <v>0</v>
       </c>
+      <c r="AM74" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>51</v>
       </c>
@@ -9215,41 +9449,41 @@
       <c r="C75" s="2">
         <v>0</v>
       </c>
-      <c r="D75" s="3">
-        <v>0</v>
+      <c r="D75" s="7">
+        <v>1</v>
       </c>
       <c r="E75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="3">
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="3">
         <v>0</v>
       </c>
       <c r="N75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="3">
         <v>0</v>
@@ -9285,10 +9519,10 @@
         <v>0</v>
       </c>
       <c r="AA75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75" s="3">
         <v>0</v>
@@ -9320,8 +9554,11 @@
       <c r="AL75" s="3">
         <v>0</v>
       </c>
+      <c r="AM75" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>53</v>
       </c>
@@ -9331,14 +9568,14 @@
       <c r="C76" s="2">
         <v>0</v>
       </c>
-      <c r="D76" s="3">
-        <v>1</v>
+      <c r="D76" s="7">
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>1</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -9436,8 +9673,11 @@
       <c r="AL76" s="3">
         <v>0</v>
       </c>
+      <c r="AM76" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>54</v>
       </c>
@@ -9447,11 +9687,11 @@
       <c r="C77" s="2">
         <v>0</v>
       </c>
-      <c r="D77" s="3">
-        <v>1</v>
+      <c r="D77" s="7">
+        <v>0</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -9487,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="Q77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" s="3">
         <v>0</v>
@@ -9499,10 +9739,10 @@
         <v>0</v>
       </c>
       <c r="U77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="3">
         <v>0</v>
@@ -9552,8 +9792,11 @@
       <c r="AL77" s="3">
         <v>0</v>
       </c>
+      <c r="AM77" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>55</v>
       </c>
@@ -9563,11 +9806,11 @@
       <c r="C78" s="2">
         <v>0</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="7">
         <v>1</v>
       </c>
       <c r="E78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -9591,16 +9834,16 @@
         <v>0</v>
       </c>
       <c r="M78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="3">
         <v>0</v>
@@ -9636,10 +9879,10 @@
         <v>0</v>
       </c>
       <c r="AB78" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="3">
         <v>0</v>
@@ -9668,8 +9911,11 @@
       <c r="AL78" s="3">
         <v>0</v>
       </c>
+      <c r="AM78" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>56</v>
       </c>
@@ -9679,8 +9925,8 @@
       <c r="C79" s="2">
         <v>0</v>
       </c>
-      <c r="D79" s="3">
-        <v>0</v>
+      <c r="D79" s="7">
+        <v>1</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -9707,13 +9953,13 @@
         <v>0</v>
       </c>
       <c r="M79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
       </c>
       <c r="O79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="3">
         <v>0</v>
@@ -9761,10 +10007,10 @@
         <v>0</v>
       </c>
       <c r="AE79" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG79" s="3">
         <v>0</v>
@@ -9784,8 +10030,11 @@
       <c r="AL79" s="3">
         <v>0</v>
       </c>
+      <c r="AM79" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>57</v>
       </c>
@@ -9795,11 +10044,11 @@
       <c r="C80" s="2">
         <v>0</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="7">
         <v>1</v>
       </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -9823,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="M80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="3">
         <v>0</v>
@@ -9853,16 +10102,16 @@
         <v>0</v>
       </c>
       <c r="W80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="3">
         <v>0</v>
       </c>
       <c r="Z80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="3">
         <v>1</v>
@@ -9871,7 +10120,7 @@
         <v>1</v>
       </c>
       <c r="AC80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="3">
         <v>0</v>
@@ -9883,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="AG80" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI80" s="3">
         <v>0</v>
@@ -9900,8 +10149,11 @@
       <c r="AL80" s="3">
         <v>0</v>
       </c>
+      <c r="AM80" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>58</v>
       </c>
@@ -9911,11 +10163,11 @@
       <c r="C81" s="2">
         <v>0</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="7">
         <v>1</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -9927,19 +10179,19 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -9975,16 +10227,16 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81" s="3">
         <v>0</v>
@@ -9993,19 +10245,19 @@
         <v>0</v>
       </c>
       <c r="AE81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG81" s="3">
         <v>0</v>
       </c>
       <c r="AH81" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI81" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ81" s="3">
         <v>0</v>
@@ -10016,8 +10268,11 @@
       <c r="AL81" s="3">
         <v>0</v>
       </c>
+      <c r="AM81" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>59</v>
       </c>
@@ -10027,11 +10282,11 @@
       <c r="C82" s="2">
         <v>0</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="7">
         <v>1</v>
       </c>
       <c r="E82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -10043,10 +10298,10 @@
         <v>0</v>
       </c>
       <c r="I82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -10055,10 +10310,10 @@
         <v>0</v>
       </c>
       <c r="M82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="3">
         <v>0</v>
@@ -10109,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="AE82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG82" s="3">
         <v>0</v>
@@ -10124,16 +10379,19 @@
         <v>0</v>
       </c>
       <c r="AJ82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL82" s="3">
         <v>0</v>
       </c>
+      <c r="AM82" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>60</v>
       </c>
@@ -10143,8 +10401,8 @@
       <c r="C83" s="2">
         <v>0</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="7">
+        <v>1</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -10177,10 +10435,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -10192,16 +10450,16 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -10243,13 +10501,16 @@
         <v>0</v>
       </c>
       <c r="AK83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM83" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>64</v>
       </c>
@@ -10259,7 +10520,7 @@
       <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="7">
         <v>0</v>
       </c>
       <c r="E84" s="3">
@@ -10281,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" s="3">
         <v>0</v>
@@ -10329,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="AA84" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84" s="3">
         <v>0</v>
@@ -10364,8 +10625,11 @@
       <c r="AL84" s="3">
         <v>0</v>
       </c>
+      <c r="AM84" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
@@ -10375,11 +10639,11 @@
       <c r="C85" s="2">
         <v>0</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="7">
         <v>1</v>
       </c>
       <c r="E85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -10427,16 +10691,16 @@
         <v>0</v>
       </c>
       <c r="U85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X85" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y85" s="3">
         <v>0</v>
@@ -10480,8 +10744,11 @@
       <c r="AL85" s="3">
         <v>0</v>
       </c>
+      <c r="AM85" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>63</v>
       </c>
@@ -10491,8 +10758,8 @@
       <c r="C86" s="2">
         <v>0</v>
       </c>
-      <c r="D86" s="3">
-        <v>0</v>
+      <c r="D86" s="7">
+        <v>1</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
@@ -10507,10 +10774,10 @@
         <v>0</v>
       </c>
       <c r="I86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -10522,10 +10789,10 @@
         <v>0</v>
       </c>
       <c r="N86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="3">
         <v>0</v>
@@ -10555,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="Y86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="3">
         <v>1</v>
       </c>
       <c r="AC86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86" s="3">
         <v>0</v>
       </c>
       <c r="AE86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" s="3">
         <v>0</v>
@@ -10594,10 +10861,13 @@
         <v>0</v>
       </c>
       <c r="AL86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>61</v>
       </c>
@@ -10607,11 +10877,11 @@
       <c r="C87" s="2">
         <v>0</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="7">
         <v>1</v>
       </c>
       <c r="E87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -10641,10 +10911,10 @@
         <v>0</v>
       </c>
       <c r="O87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="3">
         <v>0</v>
@@ -10665,10 +10935,10 @@
         <v>0</v>
       </c>
       <c r="W87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y87" s="3">
         <v>0</v>
@@ -10712,8 +10982,11 @@
       <c r="AL87" s="3">
         <v>0</v>
       </c>
+      <c r="AM87" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>65</v>
       </c>
@@ -10723,11 +10996,11 @@
       <c r="C88" s="2">
         <v>0</v>
       </c>
-      <c r="D88" s="3">
-        <v>1</v>
+      <c r="D88" s="7">
+        <v>0</v>
       </c>
       <c r="E88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -10760,13 +11033,13 @@
         <v>0</v>
       </c>
       <c r="P88" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="3">
         <v>1</v>
       </c>
       <c r="R88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" s="3">
         <v>0</v>
@@ -10826,6 +11099,9 @@
         <v>0</v>
       </c>
       <c r="AL88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="3">
         <v>0</v>
       </c>
     </row>
